--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2018.501441329841</v>
+        <v>9183.448438976942</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5589118.462218747</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22672700.29902158</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4239594.758459914</v>
+        <v>4251951.595612453</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>213.7089309661116</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>227.8503193726002</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>221.5380516068512</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>220.4623563888806</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>221.6463124176202</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>224.0194954968931</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>124.3018764260165</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>133.5074379247318</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>132.7267805197011</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>135.3335004554958</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>124.3611887315708</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>136.210429333514</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>128.8492278044037</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.5557272449332</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5393333932398</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>135.3985889238948</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>124.2422182555182</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>135.2760693786741</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>7.691768522530872</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.573660934093467</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>7.691768522530873</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.573660934093468</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>7.691768522530873</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.573660934093468</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>7.691768522530873</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.573660934093468</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>7.691768522530873</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.573660934093468</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,19 +24378,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>7.691768522530873</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.573660934093468</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,19 +24615,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>7.691768522530873</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.573660934093468</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,19 +24852,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>7.691768522530873</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.573660934093468</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,19 +25089,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>7.691768522530873</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.573660934093468</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,19 +25326,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>7.691768522530873</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.573660934093468</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,19 +25563,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>7.691768522530873</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.573660934093468</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,19 +25800,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.2525745279679</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>338.9610704234411</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>208.5419810076426</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>7.691768522530873</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.573660934093468</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>146.7180671985084</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>207.8769805161729</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>222.876261087807</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3416398688631</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3166775988975</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>111.9762305495779</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>88.47255136081093</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>98.49142681748486</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>171.1846379684609</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>200.0565464158579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,19 +26037,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9684779693381</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>162.0271147023483</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>154.7737967889741</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>91.76833190583969</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>19.65523952622401</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.27785874996061</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>176.2816470990699</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>223.6244601920234</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>227.8494471293112</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>367021.3341406557</v>
+        <v>368445.4204510308</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>53753.70276572321</v>
       </c>
       <c r="E2" t="n">
-        <v>54197.95823264408</v>
+        <v>57160.2740749318</v>
       </c>
       <c r="F2" t="n">
-        <v>54197.95823264407</v>
+        <v>57160.27407493181</v>
       </c>
       <c r="G2" t="n">
-        <v>54197.95823264407</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="H2" t="n">
-        <v>54197.95823264407</v>
+        <v>57160.2740749318</v>
       </c>
       <c r="I2" t="n">
-        <v>54197.95823264407</v>
+        <v>57160.2740749318</v>
       </c>
       <c r="J2" t="n">
-        <v>54197.95823264407</v>
+        <v>57160.2740749318</v>
       </c>
       <c r="K2" t="n">
-        <v>54197.95823264407</v>
+        <v>57160.27407493181</v>
       </c>
       <c r="L2" t="n">
-        <v>54197.95823264407</v>
+        <v>57160.27407493181</v>
       </c>
       <c r="M2" t="n">
-        <v>54197.95823264409</v>
+        <v>57160.27407493181</v>
       </c>
       <c r="N2" t="n">
-        <v>54197.95823264409</v>
+        <v>57160.27407493181</v>
       </c>
       <c r="O2" t="n">
-        <v>54197.95823264406</v>
+        <v>57160.27407493181</v>
       </c>
       <c r="P2" t="n">
-        <v>54197.95823264408</v>
+        <v>57160.27407493181</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10024.89722679746</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="C4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="D4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="E4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
       <c r="F4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
       <c r="G4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
       <c r="H4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
       <c r="I4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
       <c r="J4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
       <c r="K4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
       <c r="L4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
       <c r="M4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
       <c r="N4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
       <c r="O4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
       <c r="P4" t="n">
-        <v>41833.58474479106</v>
+        <v>25483.7760014399</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>272.0213386609021</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-22876.85944685535</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-22876.85944685535</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-22876.85944685535</v>
       </c>
       <c r="E6" t="n">
-        <v>2067.45492239466</v>
+        <v>-105035.1140315165</v>
       </c>
       <c r="F6" t="n">
-        <v>12092.35214919211</v>
+        <v>28064.88596848359</v>
       </c>
       <c r="G6" t="n">
-        <v>12092.35214919211</v>
+        <v>28064.8859684836</v>
       </c>
       <c r="H6" t="n">
-        <v>12092.35214919211</v>
+        <v>28064.88596848358</v>
       </c>
       <c r="I6" t="n">
-        <v>12092.35214919211</v>
+        <v>28064.88596848357</v>
       </c>
       <c r="J6" t="n">
-        <v>12092.35214919211</v>
+        <v>28064.88596848357</v>
       </c>
       <c r="K6" t="n">
-        <v>12092.35214919211</v>
+        <v>28064.88596848359</v>
       </c>
       <c r="L6" t="n">
-        <v>12092.35214919211</v>
+        <v>28064.88596848359</v>
       </c>
       <c r="M6" t="n">
-        <v>12092.35214919213</v>
+        <v>28064.88596848359</v>
       </c>
       <c r="N6" t="n">
-        <v>12092.35214919213</v>
+        <v>28064.88596848359</v>
       </c>
       <c r="O6" t="n">
-        <v>12092.35214919211</v>
+        <v>28064.88596848359</v>
       </c>
       <c r="P6" t="n">
-        <v>12092.35214919212</v>
+        <v>28064.88596848359</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.47804305783955</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.47804305783954</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>4.257520832081646</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>7.916095597386992</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>8.80818162042158</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>8.950707207710371</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>8.451899004066584</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>7.213500258376478</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.417038280451338</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2195884763243924</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.004013038973375529</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9240814906041552</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>2.535750240650205</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>6.800533466522552</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>6.980523351762521</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>6.385815110930395</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>5.125179609926587</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>1.666407335158271</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>0.498533135376891</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001765760810071635</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2000578050912637</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6766781382841512</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>2.614252299658842</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>3.345342887998491</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3921378449488262</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09614229897023908</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001227348497492416</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>4.257520832081645</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>7.916095597386991</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>8.808181620421578</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>8.950707207710369</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>8.451899004066583</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>7.213500258376477</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.417038280451337</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2195884763243923</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.004013038973375528</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9240814906041551</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>2.535750240650204</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>6.800533466522551</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>6.98052335176252</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>6.385815110930394</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>5.125179609926586</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>1.66640733515827</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4985331353768909</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001765760810071634</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2000578050912636</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6766781382841511</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>2.614252299658841</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>3.34534288799849</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3921378449488261</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>0.09614229897023907</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001227348497492415</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>4.257520832081645</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>7.916095597386991</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>8.808181620421578</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>8.950707207710369</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>8.451899004066583</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>7.213500258376477</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.417038280451337</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2195884763243923</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.004013038973375528</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9240814906041551</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>2.535750240650204</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>6.800533466522551</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>6.98052335176252</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>6.385815110930394</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>5.125179609926586</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>1.66640733515827</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4985331353768909</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.001765760810071634</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2000578050912636</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6766781382841511</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>2.614252299658841</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>3.34534288799849</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3921378449488261</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>0.09614229897023907</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0.001227348497492415</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>4.257520832081645</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>7.916095597386991</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>8.808181620421578</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>8.950707207710369</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>8.451899004066583</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>7.213500258376477</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.417038280451337</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2195884763243923</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.004013038973375528</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9240814906041551</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>2.535750240650204</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>6.800533466522551</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>6.98052335176252</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>6.385815110930394</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>5.125179609926586</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>1.66640733515827</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4985331353768909</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.001765760810071634</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2000578050912636</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6766781382841511</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>2.614252299658841</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>3.34534288799849</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3921378449488261</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>0.09614229897023907</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0.001227348497492415</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>4.257520832081645</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>7.916095597386991</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>8.808181620421578</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>8.950707207710369</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>8.451899004066583</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>7.213500258376477</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.417038280451337</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2195884763243923</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.004013038973375528</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9240814906041551</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>2.535750240650204</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>6.800533466522551</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>6.98052335176252</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>6.385815110930394</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>5.125179609926586</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>1.66640733515827</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>0.4985331353768909</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0.001765760810071634</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2000578050912636</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6766781382841511</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>2.614252299658841</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>3.34534288799849</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3921378449488261</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>0.09614229897023907</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0.001227348497492415</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>4.257520832081645</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>7.916095597386991</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>8.808181620421578</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>8.950707207710369</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>8.451899004066583</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>7.213500258376477</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.417038280451337</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2195884763243923</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.004013038973375528</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9240814906041551</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>2.535750240650204</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>6.800533466522551</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>6.98052335176252</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>6.385815110930394</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>5.125179609926586</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>1.66640733515827</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>0.4985331353768909</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0.001765760810071634</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2000578050912636</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6766781382841511</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>2.614252299658841</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>3.34534288799849</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>0.3921378449488261</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>0.09614229897023907</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.001227348497492415</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>4.257520832081645</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>7.916095597386991</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>8.808181620421578</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>8.950707207710369</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>8.451899004066583</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>7.213500258376477</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.417038280451337</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2195884763243923</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.004013038973375528</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9240814906041551</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>2.535750240650204</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>6.800533466522551</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>6.98052335176252</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>6.385815110930394</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>5.125179609926586</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>1.66640733515827</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>0.4985331353768909</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0.001765760810071634</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2000578050912636</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6766781382841511</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>2.614252299658841</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>3.34534288799849</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>0.3921378449488261</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>0.09614229897023907</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0.001227348497492415</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>4.257520832081645</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>7.916095597386991</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>8.808181620421578</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>8.950707207710369</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>8.451899004066583</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>7.213500258376477</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.417038280451337</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>0.2195884763243923</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.004013038973375528</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9240814906041551</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>2.535750240650204</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>6.800533466522551</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>6.98052335176252</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>6.385815110930394</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>5.125179609926586</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>1.66640733515827</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4985331353768909</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0.001765760810071634</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2000578050912636</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6766781382841511</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>2.614252299658841</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>3.34534288799849</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3921378449488261</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>0.09614229897023907</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0.001227348497492415</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>4.257520832081645</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>7.916095597386991</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>8.808181620421578</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>8.950707207710369</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>8.451899004066583</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>7.213500258376477</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>5.417038280451337</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>0.2195884763243923</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.004013038973375528</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9240814906041551</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>2.535750240650204</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>6.800533466522551</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>6.98052335176252</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>6.385815110930394</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>5.125179609926586</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>1.66640733515827</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>0.4985331353768909</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0.001765760810071634</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2000578050912636</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6766781382841511</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>2.614252299658841</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>3.34534288799849</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>0.3921378449488261</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>0.09614229897023907</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0.001227348497492415</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>4.257520832081645</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>7.916095597386991</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>8.808181620421578</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>8.950707207710369</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>8.451899004066583</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>7.213500258376477</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>5.417038280451337</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>0.2195884763243923</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.004013038973375528</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9240814906041551</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>2.535750240650204</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>6.800533466522551</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>6.98052335176252</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>6.385815110930394</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>5.125179609926586</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>1.66640733515827</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>0.4985331353768909</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0.001765760810071634</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2000578050912636</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6766781382841511</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>2.614252299658841</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>3.34534288799849</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>0.3921378449488261</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>0.09614229897023907</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0.001227348497492415</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>4.257520832081645</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>7.916095597386991</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>8.808181620421578</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>8.950707207710369</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>8.451899004066583</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>7.213500258376477</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.417038280451337</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>0.2195884763243923</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.004013038973375528</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9240814906041551</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>2.535750240650204</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>6.800533466522551</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>6.98052335176252</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>6.385815110930394</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>5.125179609926586</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>1.66640733515827</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>0.4985331353768909</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.001765760810071634</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2000578050912636</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6766781382841511</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>2.614252299658841</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>3.34534288799849</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>0.3921378449488261</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>0.09614229897023907</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0.001227348497492415</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5137316923260268</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>1.933908562763253</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>4.257520832081645</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>6.380920078868973</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>7.916095597386991</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>8.808181620421578</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>8.950707207710369</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>8.451899004066583</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>7.213500258376477</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>5.417038280451337</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>3.15105074264126</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>1.143089070072437</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>0.2195884763243923</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.004013038973375528</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2592136869185159</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9240814906041551</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>2.535750240650204</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>4.334001049627156</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>5.827599260173082</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>6.800533466522551</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>6.98052335176252</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>6.385815110930394</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>5.125179609926586</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.426046841088322</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>1.66640733515827</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>0.4985331353768909</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1081822789637221</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.001765760810071634</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2000578050912636</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6766781382841511</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>1.590848210833084</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>2.614252299658841</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>3.34534288799849</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>3.527195023710282</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>3.44332620971497</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>3.180469073168677</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.884184501733771</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>1.01174427809958</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>0.3921378449488261</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>0.09614229897023907</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0.001227348497492415</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9183.448438976942</v>
+        <v>-115926.4503584997</v>
       </c>
     </row>
     <row r="7">
@@ -26319,43 +26319,43 @@
         <v>53753.70276572321</v>
       </c>
       <c r="D2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="E2" t="n">
-        <v>57160.2740749318</v>
+        <v>57160.27407493181</v>
       </c>
       <c r="F2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="G2" t="n">
         <v>57160.27407493182</v>
       </c>
       <c r="H2" t="n">
-        <v>57160.2740749318</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="I2" t="n">
-        <v>57160.2740749318</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="J2" t="n">
-        <v>57160.2740749318</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="K2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="L2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="M2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="N2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="O2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="P2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="E6" t="n">
-        <v>-105035.1140315165</v>
+        <v>-119845.1308706304</v>
       </c>
       <c r="F6" t="n">
-        <v>28064.88596848359</v>
+        <v>13254.86912936969</v>
       </c>
       <c r="G6" t="n">
-        <v>28064.8859684836</v>
+        <v>13254.86912936969</v>
       </c>
       <c r="H6" t="n">
-        <v>28064.88596848358</v>
+        <v>13254.86912936969</v>
       </c>
       <c r="I6" t="n">
-        <v>28064.88596848357</v>
+        <v>13254.86912936969</v>
       </c>
       <c r="J6" t="n">
-        <v>28064.88596848357</v>
+        <v>13254.86912936969</v>
       </c>
       <c r="K6" t="n">
-        <v>28064.88596848359</v>
+        <v>13254.86912936969</v>
       </c>
       <c r="L6" t="n">
-        <v>28064.88596848359</v>
+        <v>13254.86912936969</v>
       </c>
       <c r="M6" t="n">
-        <v>28064.88596848359</v>
+        <v>13254.86912936969</v>
       </c>
       <c r="N6" t="n">
-        <v>28064.88596848359</v>
+        <v>13254.86912936969</v>
       </c>
       <c r="O6" t="n">
-        <v>28064.88596848359</v>
+        <v>13254.86912936969</v>
       </c>
       <c r="P6" t="n">
-        <v>28064.88596848359</v>
+        <v>13254.86912936969</v>
       </c>
     </row>
   </sheetData>
